--- a/Longitudinal_induction_analysis/LDCT/LDCT_longitudinal_binned.xlsx
+++ b/Longitudinal_induction_analysis/LDCT/LDCT_longitudinal_binned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annastuckert/Documents/GitHub/TDPBehaviorAnalysis/Longitudinal_induction_analysis/LDCT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AEF2D8-9903-DB4C-B142-D9659BC11933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20EA86A-C373-C843-BE46-60C8E431D478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="500" windowWidth="14780" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13440" yWindow="500" windowWidth="14780" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="29">
   <si>
     <t>Distance moved cm</t>
   </si>
@@ -83,6 +83,30 @@
   </si>
   <si>
     <t>Timebin 2</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>2nd week post induction</t>
   </si>
 </sst>
 </file>
@@ -425,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1343,6 +1367,942 @@
         <v>17</v>
       </c>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>935.18200000000002</v>
+      </c>
+      <c r="D36">
+        <v>8.7449300000000001</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>107.82</v>
+      </c>
+      <c r="G36">
+        <v>13.3</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>542.98699999999997</v>
+      </c>
+      <c r="D37">
+        <v>7.0978599999999998</v>
+      </c>
+      <c r="E37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>76.92</v>
+      </c>
+      <c r="G37">
+        <v>361.96</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>951.42700000000002</v>
+      </c>
+      <c r="D38">
+        <v>8.6714099999999998</v>
+      </c>
+      <c r="E38">
+        <v>13</v>
+      </c>
+      <c r="F38">
+        <v>110.88</v>
+      </c>
+      <c r="G38">
+        <v>3.82</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>1240.8</v>
+      </c>
+      <c r="D39">
+        <v>7.6122699999999996</v>
+      </c>
+      <c r="E39">
+        <v>12</v>
+      </c>
+      <c r="F39">
+        <v>164.2</v>
+      </c>
+      <c r="G39">
+        <v>303.7</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>1172.68</v>
+      </c>
+      <c r="D40">
+        <v>8.7617899999999995</v>
+      </c>
+      <c r="E40">
+        <v>11</v>
+      </c>
+      <c r="F40">
+        <v>134.66</v>
+      </c>
+      <c r="G40">
+        <v>16.68</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>1428.68</v>
+      </c>
+      <c r="D41">
+        <v>7.5408099999999996</v>
+      </c>
+      <c r="E41">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>190.92</v>
+      </c>
+      <c r="G41">
+        <v>300</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>1771.23</v>
+      </c>
+      <c r="D42">
+        <v>8.8041900000000002</v>
+      </c>
+      <c r="E42">
+        <v>13</v>
+      </c>
+      <c r="F42">
+        <v>202.24</v>
+      </c>
+      <c r="G42">
+        <v>8.1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>1410.58</v>
+      </c>
+      <c r="D43">
+        <v>9.2424499999999998</v>
+      </c>
+      <c r="E43">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="G43">
+        <v>300</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>1735.23</v>
+      </c>
+      <c r="D44">
+        <v>9.1869700000000005</v>
+      </c>
+      <c r="E44">
+        <v>16</v>
+      </c>
+      <c r="F44">
+        <v>190.46</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>1337.74</v>
+      </c>
+      <c r="D45">
+        <v>7.6731499999999997</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>175.18</v>
+      </c>
+      <c r="G45">
+        <v>300.76</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>698.17200000000003</v>
+      </c>
+      <c r="D46">
+        <v>10.0688</v>
+      </c>
+      <c r="E46">
+        <v>13</v>
+      </c>
+      <c r="F46">
+        <v>70.42</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>775.27200000000005</v>
+      </c>
+      <c r="D47">
+        <v>6.3308200000000001</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>123.26</v>
+      </c>
+      <c r="G47">
+        <v>305.5</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>997.42700000000002</v>
+      </c>
+      <c r="D48">
+        <v>7.1736700000000004</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>139.76</v>
+      </c>
+      <c r="G48">
+        <v>17.64</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49">
+        <v>1111.24</v>
+      </c>
+      <c r="D49">
+        <v>5.6396899999999999</v>
+      </c>
+      <c r="E49">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>198.34</v>
+      </c>
+      <c r="G49">
+        <v>311.56</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>1388.74</v>
+      </c>
+      <c r="D50">
+        <v>10.446300000000001</v>
+      </c>
+      <c r="E50">
+        <v>11</v>
+      </c>
+      <c r="F50">
+        <v>133.9</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>1582.92</v>
+      </c>
+      <c r="D51">
+        <v>8.5627999999999993</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+      <c r="F51">
+        <v>185.56</v>
+      </c>
+      <c r="G51">
+        <v>333.48</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>123.289</v>
+      </c>
+      <c r="D52">
+        <v>5.4697699999999996</v>
+      </c>
+      <c r="E52">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>23.42</v>
+      </c>
+      <c r="G52">
+        <v>32.92</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>544.125</v>
+      </c>
+      <c r="D53">
+        <v>5.3418900000000002</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+      <c r="F53">
+        <v>103.36</v>
+      </c>
+      <c r="G53">
+        <v>329</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>1097.8599999999999</v>
+      </c>
+      <c r="D54">
+        <v>8.7450799999999997</v>
+      </c>
+      <c r="E54">
+        <v>9</v>
+      </c>
+      <c r="F54">
+        <v>126.2</v>
+      </c>
+      <c r="G54">
+        <v>18.46</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>789.80899999999997</v>
+      </c>
+      <c r="D55">
+        <v>7.7936500000000004</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>101.96</v>
+      </c>
+      <c r="G55">
+        <v>300</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>859.36900000000003</v>
+      </c>
+      <c r="D56">
+        <v>9.3389399999999991</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>92.86</v>
+      </c>
+      <c r="G56">
+        <v>10.88</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57">
+        <v>337.06900000000002</v>
+      </c>
+      <c r="D57">
+        <v>6.9470000000000001</v>
+      </c>
+      <c r="E57">
+        <v>7</v>
+      </c>
+      <c r="F57">
+        <v>49.24</v>
+      </c>
+      <c r="G57">
+        <v>334.44</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>1206.74</v>
+      </c>
+      <c r="D58">
+        <v>8.0022400000000005</v>
+      </c>
+      <c r="E58">
+        <v>15</v>
+      </c>
+      <c r="F58">
+        <v>152.24</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>1011.16</v>
+      </c>
+      <c r="D59">
+        <v>6.7708899999999996</v>
+      </c>
+      <c r="E59">
+        <v>14</v>
+      </c>
+      <c r="F59">
+        <v>150.52000000000001</v>
+      </c>
+      <c r="G59">
+        <v>300.68</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>1225.8</v>
+      </c>
+      <c r="D60">
+        <v>6.5029000000000003</v>
+      </c>
+      <c r="E60">
+        <v>9</v>
+      </c>
+      <c r="F60">
+        <v>189.34</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>1073.67</v>
+      </c>
+      <c r="D61">
+        <v>6.6267500000000004</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>162.68</v>
+      </c>
+      <c r="G61">
+        <v>329.44</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <v>286.31900000000002</v>
+      </c>
+      <c r="D62">
+        <v>5.7424499999999998</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>50.5</v>
+      </c>
+      <c r="G62">
+        <v>21.92</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>550.14400000000001</v>
+      </c>
+      <c r="D63">
+        <v>5.3599300000000003</v>
+      </c>
+      <c r="E63">
+        <v>16</v>
+      </c>
+      <c r="F63">
+        <v>104.02</v>
+      </c>
+      <c r="G63">
+        <v>313.77999999999997</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>23</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <v>1772.21</v>
+      </c>
+      <c r="D64">
+        <v>11.030799999999999</v>
+      </c>
+      <c r="E64">
+        <v>12</v>
+      </c>
+      <c r="F64">
+        <v>161.63999999999999</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65">
+        <v>2306.16</v>
+      </c>
+      <c r="D65">
+        <v>11.528499999999999</v>
+      </c>
+      <c r="E65">
+        <v>9</v>
+      </c>
+      <c r="F65">
+        <v>200.84</v>
+      </c>
+      <c r="G65">
+        <v>300</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66">
+        <v>1395.48</v>
+      </c>
+      <c r="D66">
+        <v>9.7367899999999992</v>
+      </c>
+      <c r="E66">
+        <v>11</v>
+      </c>
+      <c r="F66">
+        <v>144.18</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>1018.45</v>
+      </c>
+      <c r="D67">
+        <v>8.6279699999999995</v>
+      </c>
+      <c r="E67">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>118.9</v>
+      </c>
+      <c r="G67">
+        <v>300</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <v>724.27599999999995</v>
+      </c>
+      <c r="D68">
+        <v>6.6716699999999998</v>
+      </c>
+      <c r="E68">
+        <v>19</v>
+      </c>
+      <c r="F68">
+        <v>110.18</v>
+      </c>
+      <c r="G68">
+        <v>11.22</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>807.053</v>
+      </c>
+      <c r="D69">
+        <v>7.1370100000000001</v>
+      </c>
+      <c r="E69">
+        <v>15</v>
+      </c>
+      <c r="F69">
+        <v>114.34</v>
+      </c>
+      <c r="G69">
+        <v>300</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70">
+        <v>789.35900000000004</v>
+      </c>
+      <c r="D70">
+        <v>7.1525800000000004</v>
+      </c>
+      <c r="E70">
+        <v>21</v>
+      </c>
+      <c r="F70">
+        <v>112.18</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>1103.74</v>
+      </c>
+      <c r="D71">
+        <v>6.2884099999999998</v>
+      </c>
+      <c r="E71">
+        <v>15</v>
+      </c>
+      <c r="F71">
+        <v>176.84</v>
+      </c>
+      <c r="G71">
+        <v>300</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
